--- a/Single DAO Result/1INCH results_output.xlsx
+++ b/Single DAO Result/1INCH results_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01052152408494782</v>
+        <v>0.006274911567708971</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6491243465161949</v>
+        <v>0.5206242369882113</v>
       </c>
     </row>
     <row r="4">
@@ -467,17 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4899458476120293</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Users</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8799580202701871</v>
+        <v>-0.448249571146848</v>
       </c>
     </row>
   </sheetData>

--- a/Single DAO Result/1INCH results_output.xlsx
+++ b/Single DAO Result/1INCH results_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.006274911567708971</v>
+        <v>0.01052152408494782</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5206242369882113</v>
+        <v>0.6491243465161949</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.448249571146848</v>
+        <v>-0.4899458476120293</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Users</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8799580202701871</v>
       </c>
     </row>
   </sheetData>
